--- a/assets/disciplinas/LOM3027.xlsx
+++ b/assets/disciplinas/LOM3027.xlsx
@@ -40,7 +40,7 @@
     <t>Créditos-aula:</t>
   </si>
   <si>
-    <t>4</t>
+    <t>2</t>
   </si>
   <si>
     <t>Créditos-trabalho</t>
@@ -52,13 +52,13 @@
     <t>Carga horária:</t>
   </si>
   <si>
-    <t>60 h</t>
+    <t>30 h</t>
   </si>
   <si>
     <t>Ativação:</t>
   </si>
   <si>
-    <t>01/01/2020</t>
+    <t>01/01/2022</t>
   </si>
   <si>
     <t>Semestre ideal:</t>

--- a/assets/disciplinas/LOM3027.xlsx
+++ b/assets/disciplinas/LOM3027.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="36">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,7 +70,7 @@
     <t>Objetivos:</t>
   </si>
   <si>
-    <t>O objetivo desta disciplina é apresentar aos alunos fundamentos gerais relativos à obtenção de metais e ligas via processos pirometalúrgicos. Serão feitas aplicações com relação à produção de ferro gusa / aços e cobre por esta via e eventualmente outros metais mais relevantes através da apresentação de trabalhos pelos alunos.</t>
+    <t>3577649 - Carlos Angelo Nunes</t>
   </si>
   <si>
     <t>Objectives:</t>
@@ -79,55 +79,43 @@
     <t>Docentes responsáveis:</t>
   </si>
   <si>
-    <t>3577649 - Carlos Angelo Nunes</t>
+    <t>Programa resumido:</t>
+  </si>
+  <si>
+    <t>Short syllabus:</t>
+  </si>
+  <si>
+    <t>Programa:</t>
+  </si>
+  <si>
+    <t>Syllabus:</t>
+  </si>
+  <si>
+    <t>Avaliação:</t>
+  </si>
+  <si>
+    <t>Método:</t>
   </si>
   <si>
     <t>1922320 - Sebastiao Ribeiro</t>
   </si>
   <si>
-    <t>Programa resumido:</t>
-  </si>
-  <si>
-    <t>1- Fundamentos de Pirometalurgia; 2- Balanço de massa e energia; 3- Equilíbrio de reações em sistemas envolvendo gases e fases condensadas; 4 - Preparação de matérias-primas; 5- Redução de óxidos, obtenção de gusa em alto-forno; 6- Refino do aço por processos pneumáticos; 7- Escórias; 8- Produção pirometalúrgica do cobre.</t>
-  </si>
-  <si>
-    <t>Short syllabus:</t>
-  </si>
-  <si>
-    <t>Programa:</t>
-  </si>
-  <si>
-    <t>1- Fundamentos de Pirometalurgia: minérios, fluxogramas, características da extração de metais, unidades de medida, estequiometria; 2- Balanço de massa e energia: balanço de materiais, variação de entalpia em reações químicas, balanço de entalpia; 3 - Equilíbrio de reações em sistemas envolvendo gases e fases condensadas: variação de energia livre de Gibbs em reações químicas, constante de equilíbrio, diagrama de Ellingham; 4- Preparação de matérias primas: secagem; calcinação; coqueificação, ustulação de sulfetos, aglomeração de minérios; 5- Redução de óxidos: termodinâmica da redução de óxidos, operação do alto forno, comportamento de impurezas durante a fabricação do gusa; 6- Refino do aço por processos pneumáticos: descarburação, desfosforação, dessulfuração, desoxidação; 7 - Escórias: escória de alto-forno; escória de aciaria LD; 8- Produção pirometalúrgica do cobre: fundamentos, minério, forno de fusão para matte, escória, conversão da matte, forno de conversão, processo de refino.</t>
-  </si>
-  <si>
-    <t>Syllabus:</t>
-  </si>
-  <si>
-    <t>Avaliação:</t>
-  </si>
-  <si>
-    <t>Método:</t>
+    <t>Critério:</t>
   </si>
   <si>
     <t>O curso será ministrado na forma de aulas expositivas.</t>
   </si>
   <si>
-    <t>Critério:</t>
+    <t>Norma de recuperação:</t>
   </si>
   <si>
     <t>Serão aplicadas duas avaliações escritas (P1 e P2) que comporão a nota final (NF). A nota final será calculada através da expressão: NF=(P1+P2)/2. Poderão ser solicitados trabalhos aos alunos e que irão também compor parte da nota P2.</t>
   </si>
   <si>
-    <t>Norma de recuperação:</t>
+    <t>Bibliografia:</t>
   </si>
   <si>
     <t>Para os alunos que obtiverem 3,0</t>
-  </si>
-  <si>
-    <t>Bibliografia:</t>
-  </si>
-  <si>
-    <t>1) Terkel Rosenqvist. Principles of extractive metallurgy, 2nd edition, McGraw-Hill International Editions - Materials Science &amp; Engineering Series, London, 1983. 2) Carlos Antônio da Silva, Danton Heleno Gameiro e Itavahn Alves da Silva. Balanço de energia em processos metalúrgicos, Escola de Minas - Departamento de Metalurgia, Universidade Federal de Ouro Preto (apostila).3) Fathi Habashi. Extractive Metallurgy, Gordon and Breach Science Publishers, 1986. 4) Alan H. Cottrell. Introdução à metalurgia, 2a edição, Fundação Calouste Gulbenkian, Lisboa, 1975.</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -490,7 +478,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -615,56 +603,62 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" ht="60" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="B13" s="2" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="B14" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="60" customHeight="1">
+      <c r="A14" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="60" customHeight="1">
+    </row>
+    <row r="15" spans="1:3" ht="120" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="120" customHeight="1">
+      <c r="A16" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="60" customHeight="1">
-      <c r="A16" s="1" t="s">
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="120" customHeight="1">
-      <c r="A17" s="1" t="s">
+    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="A18" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B18" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C18" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="120" customHeight="1">
-      <c r="A18" s="1" t="s">
+    <row r="19" spans="1:3" ht="60" customHeight="1">
+      <c r="A19" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="1" t="s">
+      <c r="B19" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>29</v>
       </c>
     </row>
@@ -679,7 +673,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="60" customHeight="1">
+    <row r="21" spans="1:3" ht="120" customHeight="1">
       <c r="A21" s="1" t="s">
         <v>32</v>
       </c>
@@ -690,39 +684,17 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="60" customHeight="1">
+    <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B22" s="2" t="s">
+    </row>
+    <row r="23" spans="1:3" ht="30" customHeight="1">
+      <c r="B23" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C23" s="3" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="120" customHeight="1">
-      <c r="A23" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="30" customHeight="1">
-      <c r="B25" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/assets/disciplinas/LOM3027.xlsx
+++ b/assets/disciplinas/LOM3027.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="40">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,24 +70,36 @@
     <t>Objetivos:</t>
   </si>
   <si>
+    <t>O objetivo desta disciplina é apresentar aos alunos fundamentos gerais relativos à obtenção de metais e ligas via processos pirometalúrgicos. Serão feitas aplicações com relação à produção de ferro gusa / aços e cobre por esta via e eventualmente outros metais mais relevantes através da apresentação de trabalhos pelos alunos.</t>
+  </si>
+  <si>
+    <t>Objectives:</t>
+  </si>
+  <si>
+    <t>Docentes responsáveis:</t>
+  </si>
+  <si>
     <t>3577649 - Carlos Angelo Nunes</t>
   </si>
   <si>
-    <t>Objectives:</t>
-  </si>
-  <si>
-    <t>Docentes responsáveis:</t>
+    <t>1922320 - Sebastiao Ribeiro</t>
   </si>
   <si>
     <t>Programa resumido:</t>
   </si>
   <si>
+    <t>1- Fundamentos de Pirometalurgia; 2- Balanço de massa e energia; 3- Equilíbrio de reações em sistemas envolvendo gases e fases condensadas; 4 - Preparação de matérias-primas; 5- Redução de óxidos, obtenção de gusa em alto-forno; 6- Refino do aço por processos pneumáticos; 7- Escórias; 8- Produção pirometalúrgica do cobre.</t>
+  </si>
+  <si>
     <t>Short syllabus:</t>
   </si>
   <si>
     <t>Programa:</t>
   </si>
   <si>
+    <t>1- Fundamentos de Pirometalurgia: minérios, fluxogramas, características da extração de metais, unidades de medida, estequiometria; 2- Balanço de massa e energia: balanço de materiais, variação de entalpia em reações químicas, balanço de entalpia; 3 - Equilíbrio de reações em sistemas envolvendo gases e fases condensadas: variação de energia livre de Gibbs em reações químicas, constante de equilíbrio, diagrama de Ellingham; 4- Preparação de matérias primas: secagem; calcinação; coqueificação, ustulação de sulfetos, aglomeração de minérios; 5- Redução de óxidos: termodinâmica da redução de óxidos, operação do alto forno, comportamento de impurezas durante a fabricação do gusa; 6- Refino do aço por processos pneumáticos: descarburação, desfosforação, dessulfuração, desoxidação; 7 - Escórias: escória de alto-forno; escória de aciaria LD; 8- Produção pirometalúrgica do cobre: fundamentos, minério, forno de fusão para matte, escória, conversão da matte, forno de conversão, processo de refino.</t>
+  </si>
+  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -97,25 +109,25 @@
     <t>Método:</t>
   </si>
   <si>
-    <t>1922320 - Sebastiao Ribeiro</t>
+    <t>O curso será ministrado na forma de aulas expositivas.</t>
   </si>
   <si>
     <t>Critério:</t>
   </si>
   <si>
-    <t>O curso será ministrado na forma de aulas expositivas.</t>
+    <t>Serão aplicadas duas avaliações escritas (P1 e P2) que comporão a nota final (NF). A nota final será calculada através da expressão: NF=(P1+P2)/2. Poderão ser solicitados trabalhos aos alunos e que irão também compor parte da nota P2.</t>
   </si>
   <si>
     <t>Norma de recuperação:</t>
   </si>
   <si>
-    <t>Serão aplicadas duas avaliações escritas (P1 e P2) que comporão a nota final (NF). A nota final será calculada através da expressão: NF=(P1+P2)/2. Poderão ser solicitados trabalhos aos alunos e que irão também compor parte da nota P2.</t>
+    <t>Para os alunos que obtiverem 3,0</t>
   </si>
   <si>
     <t>Bibliografia:</t>
   </si>
   <si>
-    <t>Para os alunos que obtiverem 3,0</t>
+    <t>1) Terkel Rosenqvist. Principles of extractive metallurgy, 2nd edition, McGraw-Hill International Editions - Materials Science &amp; Engineering Series, London, 1983. 2) Carlos Antônio da Silva, Danton Heleno Gameiro e Itavahn Alves da Silva. Balanço de energia em processos metalúrgicos, Escola de Minas - Departamento de Metalurgia, Universidade Federal de Ouro Preto (apostila).3) Fathi Habashi. Extractive Metallurgy, Gordon and Breach Science Publishers, 1986. 4) Alan H. Cottrell. Introdução à metalurgia, 2a edição, Fundação Calouste Gulbenkian, Lisboa, 1975.</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -478,13 +490,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="30.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="60.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="60.7109375" style="3" customWidth="1"/>
   </cols>
@@ -603,62 +615,56 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="60" customHeight="1">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:3">
+      <c r="B13" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="C13" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="60" customHeight="1">
-      <c r="A14" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" ht="120" customHeight="1">
+      <c r="C14" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="60" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="120" customHeight="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="60" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="120" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="60" customHeight="1">
+        <v>26</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="120" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="60" customHeight="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C19" s="3" t="s">
         <v>29</v>
       </c>
     </row>
@@ -673,7 +679,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="120" customHeight="1">
+    <row r="21" spans="1:3" ht="60" customHeight="1">
       <c r="A21" s="1" t="s">
         <v>32</v>
       </c>
@@ -684,17 +690,39 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" ht="60" customHeight="1">
       <c r="A22" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" ht="30" customHeight="1">
+      <c r="B22" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="120" customHeight="1">
+      <c r="A23" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="B23" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="30" customHeight="1">
+      <c r="B25" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
